--- a/Excel Files/pdfData.xlsx
+++ b/Excel Files/pdfData.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Company Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Company ESG" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Company Products" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,8 +648,6 @@
           <t>11,31,07,120</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -674,8 +673,6 @@
           <t>investors@inel.co.in</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
         <v>1984</v>
       </c>
@@ -761,7 +758,6 @@
           <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>['Hyderabad']</t>
@@ -837,7 +833,6 @@
           <t>Rs. 22,391.75 Lakhs</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
         <v>412</v>
       </c>
@@ -856,9 +851,6 @@
           <t>Public</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>https://www.avantel.in/</t>
@@ -906,7 +898,6 @@
           <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>['Hyderabad']</t>
@@ -982,7 +973,6 @@
           <t>Rs. 22,391.75 Lakhs</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
           <t>412</t>
@@ -1003,9 +993,6 @@
           <t>Public</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
           <t>https://www.avantel.in/</t>
@@ -1125,7 +1112,6 @@
       <c r="F2" t="n">
         <v>37148</v>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>No</t>
@@ -1164,7 +1150,6 @@
       <c r="F3" t="n">
         <v>37148</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1203,7 +1188,6 @@
       <c r="F4" t="n">
         <v>37148</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>No</t>
@@ -1212,6 +1196,109 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>GJ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Wireless front end</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A wireless front end is a component of a wireless communication system that processes signals between the antenna and the baseband processing unit. It handles radio frequency (RF) signal transmission and reception without physical wires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Satellite Communication</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Satellite communication uses artificial satellites to relay signals between various communication points on Earth, enabling long-distance communication and broadcasting across vast geographical areas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Embedded systems</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Embedded systems are computer systems designed to perform specific tasks within larger systems. They are often resource-constrained, prioritizing efficiency and reliability over general-purpose computing capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Signal Processing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Signal processing involves manipulating and analyzing signals, such as sound waves or images, to extract information or enhance quality.  Techniques include filtering, transformation, and compression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Network management</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Network management encompasses the administration and monitoring of computer networks.  It involves tasks like configuration, security, performance optimization, and troubleshooting to ensure network reliability and efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Software development</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Software development encompasses the entire process of conceiving, specifying, designing, programming, documenting, testing, and bug fixing involved in creating and maintaining applications, frameworks, or other software components.</t>
         </is>
       </c>
     </row>

--- a/Excel Files/pdfData.xlsx
+++ b/Excel Files/pdfData.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Company Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Company ESG" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Company Products" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Company Brand" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,6 +1303,193 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DOOH billboards</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DOOH billboards refer to Digital Out-of-Home advertising.  These are electronic billboards that use digital displays to show dynamic, targeted advertisements, offering greater flexibility and reach than traditional static billboards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Digital bus queue shelters</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital bus queue shelters utilize technology to improve passenger experience.  Features may include digital displays showing real-time arrival information, advertising, and potentially interactive elements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hybrid mobility solutions (e-bikes)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hybrid mobility solutions, specifically e-bikes, offer a blend of human-powered and electric assistance for efficient and eco-friendly transportation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Traffic surveillance booths</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Traffic surveillance booths are structures designed for monitoring and managing traffic flow.  They provide a safe and controlled environment for operators to oversee roadways and intersections, often equipped with cameras and communication systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Street accessible libraries</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Libraries designed with convenient street access, ensuring easy entry and usability for all members of the community, regardless of physical limitations or accessibility needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ad-tech solutions (Captura)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A d-tech solutions provider, Captura, offers technology solutions.  Further details about specific products or services are unavailable from the provided text.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Geospatial data based media planning</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Geospatial database media planning uses location data to optimize advertising campaigns.  It leverages geographic information to target specific demographics and maximize reach and ROI by identifying optimal placement of media based on location data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campaign footfall ROI mapping</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Campaign Footfall ROI Mapping analyzes the return on investment (ROI) of marketing campaigns by tracking foot traffic and attributing it to specific campaigns.  It helps measure the effectiveness of campaigns in driving in-store visits and sales.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rating Source</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>glassdoor</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ambitionbox</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>justdial</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>crisil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel Files/pdfData.xlsx
+++ b/Excel Files/pdfData.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="Company Details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Company ESG" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Company Products" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Company Brand" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +647,8 @@
           <t>11,31,07,120</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -674,6 +674,8 @@
           <t>investors@inel.co.in</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
         <v>1984</v>
       </c>
@@ -759,6 +761,7 @@
           <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>['Hyderabad']</t>
@@ -834,6 +837,7 @@
           <t>Rs. 22,391.75 Lakhs</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
         <v>412</v>
       </c>
@@ -852,6 +856,9 @@
           <t>Public</t>
         </is>
       </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr">
         <is>
           <t>https://www.avantel.in/</t>
@@ -899,6 +906,7 @@
           <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>['Hyderabad']</t>
@@ -974,47 +982,341 @@
           <t>Rs. 22,391.75 Lakhs</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>412</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Defense and Space</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>https://www.avantel.in/</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>['Wireless front end', 'Satellite Communication', 'Embedded systems', 'Signal Processing', 'Network management', 'Software development']</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>['Indian Defense Forces', 'DRDO', 'ISRO', 'DPSUs', 'Shipyards', 'Ordnance Factories', 'Indian Railways', 'Research Institutes', 'L&amp;T', 'New Space India Limited']</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>['Visakhapatnam, Andhra Pradesh', 'Hyderabad, Telangana']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Avantel Limited</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electronics &amp; Communication</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>L72200AP1990PLC011334</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Hyderabad']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sy No's. 66 &amp; 67, Plot No. 68 &amp; 69, 4th Floor, Jubilee Heights, Jubilee Enclave, Madhapur, Hyderabad - 500 081, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BSE Limited</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Rs. 48,65,39,160</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>M/s. Grandhy &amp; Co., Chartered Accountants</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Statutory Auditors</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Rs. 22,391.75 Lakhs</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Rs. 17,141.39 Lakhs</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>+91 - 40 - 6630 5000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>compliance@avantel.in</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Dr. Abburi Vidyasagar</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Chairman &amp; Managing Director</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>30/05/1990</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Rs. 22,391.75 Lakhs</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>412</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Defense and Space</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>https://www.avantel.in/</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>['Wireless front end', 'Satellite Communication', 'Embedded systems', 'Signal Processing', 'Network management', 'Software development']</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>['Indian Defence Forces', 'DRDO', 'ISRO', 'DPSUs', 'Shipyards', 'Ordnance Factories', 'Indian Railways', 'Research Institutes', 'L&amp;T', 'New Space India Limited']</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>['Visakhapatnam, Andhra Pradesh', 'Hyderabad, Telangana']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Avantel Limited</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronics &amp; Communication</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>L72200AP1990PLC011334</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sy. No. 141, Plot No 47/P, APIIC Industrial Park, Gambheeram (V), Anandapuram (M), Visakhapatnam - 531163, Andhra Pradesh, India</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Hyderabad']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sy No's. 66 &amp; 67, Plot No. 68 &amp; 69, 4th Floor, Jubilee Heights, Jubilee Enclave, Madhapur, Hyderabad - 500 081, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BSE Limited</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Rs. 48,65,39,160</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M/s. Grandhy &amp; Co., Chartered Accountants</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Statutory Auditors</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Rs. 22,391.75 Lakhs</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Rs. 17,141.39 Lakhs</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>+91 - 40 - 6630 5000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>compliance@avantel.in</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Dr. Abburi Vidyasagar</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Chairman &amp; Managing Director</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>30/05/1990</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Rs. 22,391.75 Lakhs</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>412</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Defense and Space</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Public</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>https://www.avantel.in/</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>['Wireless front end', 'Satellite Communication', 'Embedded systems', 'Signal Processing', 'Network management', 'Software development']</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>['Indian Defense Forces', 'DRDO', 'ISRO', 'DPSUs', 'Shipyards', 'Ordnance Factories', 'Indian Railways', 'Research Institutes', 'L&amp;T', 'New Space India Limited']</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>['Visakhapatnam, Andhra Pradesh', 'Hyderabad, Telangana']</t>
         </is>
@@ -1031,7 +1333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1415,7 @@
       <c r="F2" t="n">
         <v>37148</v>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>No</t>
@@ -1151,6 +1454,7 @@
       <c r="F3" t="n">
         <v>37148</v>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1159,334 +1463,6 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>GJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>India Nippon Electricals Limited</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Automotive Electrical Manufacturing</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Environmental</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Energy Consumption</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>37148</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Wireless front end</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A wireless front end is a component of a wireless communication system that processes signals between the antenna and the baseband processing unit. It handles radio frequency (RF) signal transmission and reception without physical wires.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Satellite Communication</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Satellite communication uses artificial satellites to relay signals between various communication points on Earth, enabling long-distance communication and broadcasting across vast geographical areas.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Embedded systems</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Embedded systems are computer systems designed to perform specific tasks within larger systems. They are often resource-constrained, prioritizing efficiency and reliability over general-purpose computing capabilities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Signal Processing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Signal processing involves manipulating and analyzing signals, such as sound waves or images, to extract information or enhance quality.  Techniques include filtering, transformation, and compression.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Network management</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Network management encompasses the administration and monitoring of computer networks.  It involves tasks like configuration, security, performance optimization, and troubleshooting to ensure network reliability and efficiency.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Software development</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Software development encompasses the entire process of conceiving, specifying, designing, programming, documenting, testing, and bug fixing involved in creating and maintaining applications, frameworks, or other software components.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DOOH billboards</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DOOH billboards refer to Digital Out-of-Home advertising.  These are electronic billboards that use digital displays to show dynamic, targeted advertisements, offering greater flexibility and reach than traditional static billboards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Digital bus queue shelters</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Digital bus queue shelters utilize technology to improve passenger experience.  Features may include digital displays showing real-time arrival information, advertising, and potentially interactive elements.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hybrid mobility solutions (e-bikes)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hybrid mobility solutions, specifically e-bikes, offer a blend of human-powered and electric assistance for efficient and eco-friendly transportation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Traffic surveillance booths</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Traffic surveillance booths are structures designed for monitoring and managing traffic flow.  They provide a safe and controlled environment for operators to oversee roadways and intersections, often equipped with cameras and communication systems.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Street accessible libraries</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Libraries designed with convenient street access, ensuring easy entry and usability for all members of the community, regardless of physical limitations or accessibility needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ad-tech solutions (Captura)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>A d-tech solutions provider, Captura, offers technology solutions.  Further details about specific products or services are unavailable from the provided text.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Geospatial data based media planning</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Geospatial database media planning uses location data to optimize advertising campaigns.  It leverages geographic information to target specific demographics and maximize reach and ROI by identifying optimal placement of media based on location data.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Campaign footfall ROI mapping</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Campaign Footfall ROI Mapping analyzes the return on investment (ROI) of marketing campaigns by tracking foot traffic and attributing it to specific campaigns.  It helps measure the effectiveness of campaigns in driving in-store visits and sales.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rating Source</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>glassdoor</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ambitionbox</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>justdial</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>crisil</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BBB</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
